--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egkozhin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C6A525-0842-4AE4-B75C-C37195520A55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF65C6C9-6B99-4662-AE5D-8B0B92463BB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{074C8703-C40A-47D5-B263-289DD4F7C6F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{770D7E4B-E50B-46C5-8E46-B6F13BDBB964}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021_03wk2" sheetId="1" r:id="rId1"/>
+    <sheet name="2021_04wk2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +30,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CF5ED556-8C6D-4323-9F74-A1D3D80178C5}</author>
+  </authors>
+  <commentList>
+    <comment ref="L28" authorId="0" shapeId="0" xr:uid="{CF5ED556-8C6D-4323-9F74-A1D3D80178C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    его записать как генератор (относится к приборам общего назначения)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>г. Москва / Россия / Центральный ФО / г. Москва</t>
   </si>
@@ -42,6 +60,21 @@
     <t>RUB</t>
   </si>
   <si>
+    <t>Анализ цен</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург / Россия / Северо-западный ФО / г. Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Электронный аукцион</t>
+  </si>
+  <si>
+    <t>7733546058</t>
+  </si>
+  <si>
+    <t>АО "ГОС МКБ "ВЫМПЕЛ" ИМ. И.И. ТОРОПОВА"</t>
+  </si>
+  <si>
     <t>Продукты</t>
   </si>
   <si>
@@ -78,22 +111,136 @@
     <t>Название</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>https://yandex.ru/</t>
-  </si>
-  <si>
-    <t>АО "НТЦ ПРОМТЕХАЭРО"</t>
-  </si>
-  <si>
-    <t>7709827690</t>
-  </si>
-  <si>
-    <t>05.04.2021</t>
-  </si>
-  <si>
-    <t>13.04.2021 09:00:00</t>
+    <t>ФГУП "РФЯЦ - ВНИИЭФ"</t>
+  </si>
+  <si>
+    <t>5254001230</t>
+  </si>
+  <si>
+    <t>Россия / Нижегородская область / Приволжский ФО / Саров</t>
+  </si>
+  <si>
+    <t>22.04.2021 09:00:00</t>
+  </si>
+  <si>
+    <t>26.04.2021 10:00:00</t>
+  </si>
+  <si>
+    <t>26.04.2021 09:00:00</t>
+  </si>
+  <si>
+    <t>Запрос цен</t>
+  </si>
+  <si>
+    <t>АКЦИОНЕРНОЕ ОБЩЕСТВО "ГОСУДАРСТВЕННЫЙ НАУЧНЫЙ ЦЕНТР РОССИЙСКОЙ ФЕДЕРАЦИИ - ФИЗИКО - ЭНЕРГЕТИЧЕСКИЙ ИНСТИТУТ ИМЕНИ А.И. ЛЕЙПУНСКОГО" объявляет тендер: Право заключения договора на поставку генератора сигналов.</t>
+  </si>
+  <si>
+    <t>https://zakupki.gov.ru/223/purchase/public/purchase/info/common-info.html?regNumber=32110202889</t>
+  </si>
+  <si>
+    <t>АО "ГНЦ РФ - ФЭИ"</t>
+  </si>
+  <si>
+    <t>4025442583</t>
+  </si>
+  <si>
+    <t>16.04.2021</t>
+  </si>
+  <si>
+    <t>Россия / Центральный ФО / Калужская область / Обнинск</t>
+  </si>
+  <si>
+    <t>Поставка средств по технической защите информации в рамках государственного оборонного заказа в целях обеспечения государственной программы вооружения</t>
+  </si>
+  <si>
+    <t>https://zakupki.gov.ru/epz/order/notice/ea44/view/common-info.html?regNumber=0164100008721000037</t>
+  </si>
+  <si>
+    <t>УМВД РОССИИ ПО ТАМБОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>6831004679</t>
+  </si>
+  <si>
+    <t>Россия / Центральный ФО / Тамбовская область / Тамбов</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ИНСТИТУТ ФИЗИКИ ПОЛУПРОВОДНИКОВ ИМ. А.В. РЖАНОВА СИБИРСКОГО ОТДЕЛЕНИЯ РОССИЙСКОЙ АКАДЕМИИ НАУК объявляет тендер: Поставка вольтметра универсального и генератора сигналов специальной формы</t>
+  </si>
+  <si>
+    <t>https://zakupki.gov.ru/223/purchase/public/purchase/info/common-info.html?regNumber=32110200887</t>
+  </si>
+  <si>
+    <t>ИФП СО РАН</t>
+  </si>
+  <si>
+    <t>5408100057</t>
+  </si>
+  <si>
+    <t>Россия / Новосибирская область / Сибирский ФО / Новосибирск</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ АВТОНОМНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "САНКТ-ПЕТЕРБУРГСКИЙ ГОСУДАРСТВЕННЫЙ УНИВЕРСИТЕТ АЭРОКОСМИЧЕСКОГО ПРИБОРОСТРОЕНИЯ" объявляет тендер: Приобретение лабораторного оборудования для нужд ФСПО ГУАП.</t>
+  </si>
+  <si>
+    <t>https://zakupki.gov.ru/223/purchase/public/purchase/info/common-info.html?regNumber=32110199744</t>
+  </si>
+  <si>
+    <t>ГУАП,ФГАОУ ВО ГУАП,ФГАОУ ВО"САНКТ-ПЕТЕРБУРГСКИЙ ГОСУДАРСТВЕННЫЙ УНИВЕРСИТЕТ АЭРОКОСМИЧЕСКОГО ПРИБОРОСТРОЕНИЯ",САНКТ-ПЕТЕРБУРГСКИЙ ГОСУДАРСТВЕННЫЙ УНИВЕРСИТЕТ АЭРОКОСМИЧЕСКОГО ПРИБОРОСТРОЕНИЯ</t>
+  </si>
+  <si>
+    <t>7812003110</t>
+  </si>
+  <si>
+    <t>Акционерное общество "Научно-исследовательский институт автоматизированных систем и комплексов связи"Нептун" объявляет тендер: 0641-2021-00313 Поставка направленного датчика мощности</t>
+  </si>
+  <si>
+    <t>http://etprf.ru/NotificationEX/id/141475</t>
+  </si>
+  <si>
+    <t>АО "НИИ "НЕПТУН"</t>
+  </si>
+  <si>
+    <t>7801563590</t>
+  </si>
+  <si>
+    <t>мониторинг цен в электронной форме на Поставка измерительного оборудования для перевооружения экспериментальной базы</t>
+  </si>
+  <si>
+    <t>https://www.roseltorg.ru/procedure/ATOM16042100042</t>
+  </si>
+  <si>
+    <t>26.04.2021 23:59:59</t>
+  </si>
+  <si>
+    <t>АО ЗЛАТМАШ объявляет тендер: Частотомер электронно-счетный ЧЗ-88 С поверкой и паспортом или эквивалент</t>
+  </si>
+  <si>
+    <t>https://etpgpb.ru/procedure/tender/etp/473636-chastotomer-elektronno-schetnyy-chz-88-s-poverkoy-i-pasportom-ili-ekvivalent/</t>
+  </si>
+  <si>
+    <t>АО "ЗЛАТМАШ"</t>
+  </si>
+  <si>
+    <t>7404052938</t>
+  </si>
+  <si>
+    <t>Отбор</t>
+  </si>
+  <si>
+    <t>22.04.2021 18:00:00</t>
+  </si>
+  <si>
+    <t>Россия / Уральский ФО / Челябинская область / Златоуст</t>
+  </si>
+  <si>
+    <t>АКЦИОНЕРНОЕ ОБЩЕСТВО "ГОСУДАРСТВЕННОЕ МАШИНОСТРОИТЕЛЬНОЕ КОНСТРУКТОРСКОЕ БЮРО "ВЫМПЕЛ" ИМЕНИ И.И. ТОРОПОВА" объявляет тендер: поставка нагрузки электронной с поверкой на эталон</t>
+  </si>
+  <si>
+    <t>https://zakupki.gov.ru/223/purchase/public/purchase/info/common-info.html?regNumber=32110202393</t>
+  </si>
+  <si>
+    <t>23.04.2021 17:00:00</t>
   </si>
 </sst>
 </file>
@@ -103,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +271,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -140,19 +313,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -168,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,14 +353,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF005AAA"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF005AAA"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF005AAA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -209,15 +384,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -226,15 +392,60 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="2" xr:uid="{20514885-D792-4D90-BA1E-9B746C9759F3}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8190D912-8570-48CB-B0F0-FACA47BB33CE}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{0BE608E4-75EE-47AB-8F0E-7020395E8D9B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,6 +458,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alexey Soloviev" id="{8CCC3DFB-9D4E-4023-91A9-59D8214AA4A7}" userId="S::alexey.soloviev@keysight.com::864b255b-221f-4757-aaf5-60c91aac082f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,15 +761,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L28" dT="2021-04-16T06:35:24.51" personId="{8CCC3DFB-9D4E-4023-91A9-59D8214AA4A7}" id="{CF5ED556-8C6D-4323-9F74-A1D3D80178C5}">
+    <text>его записать как генератор (относится к приборам общего назначения)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCB5043-AF62-41FC-AE44-F7DA3ACEEE2E}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB3F23-8E57-4E52-BDC1-06501EA2229A}">
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
@@ -565,89 +790,811 @@
     <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="43" style="1" customWidth="1"/>
-    <col min="12" max="12" width="56.5546875" style="2"/>
-    <col min="13" max="16384" width="56.5546875" style="1"/>
+    <col min="12" max="12" width="60.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10">
+        <v>131400</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>185351186</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10">
+        <v>6762300</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>185344214</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="116.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="10">
+        <v>93550</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>185327196</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="318" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10">
+        <v>347174</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>185309812</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10">
+        <v>561290.15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="9">
+        <v>185308518</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>185294266</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="9">
+        <v>185291375</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="115.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="116.4" thickTop="1" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2134378.0299999998</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E9" s="13">
+        <v>1277453.6000000001</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
-        <v>184611334</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="H9" s="12">
+        <v>185346587</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickTop="1"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="17"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C2D5DFF0-8887-4D73-B9DC-39ADD70D409A}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{BDD2BB19-1089-4C08-8F08-F1BCD9FE05EF}"/>
+    <hyperlink ref="A4" r:id="rId1" display="http://www.bicotender.ru/tc/tender/show/tender_id/185327196" xr:uid="{4691A60A-6B32-4878-BF82-4A8E6604322E}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{9F923B6B-FC6F-4864-BC49-F3D8E78A83E6}"/>
+    <hyperlink ref="K4" r:id="rId3" display="http://bicotender.ru/tc/search/advanced/?region_id=4762&amp;submit=1" xr:uid="{0AED59CA-2E06-44F5-BF32-723EDDF56236}"/>
+    <hyperlink ref="A7" r:id="rId4" display="http://www.bicotender.ru/tc/tender/show/tender_id/185294266" xr:uid="{484A7A6A-2298-4CAB-A0AB-1BF433CDD3AF}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{F038A799-245D-4FAF-9421-E14CD667D19A}"/>
+    <hyperlink ref="K7" r:id="rId6" display="http://bicotender.ru/tc/search/advanced/?region_id=4725&amp;submit=1" xr:uid="{E4493AB3-FB86-4587-8239-24866A9451BF}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.bicotender.ru/tc/tender/show/tender_id/185291375" xr:uid="{487BE636-71DE-4D9A-8283-CAA1274CE3C5}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{2BF7053A-622D-4236-8613-4EA3316665E2}"/>
+    <hyperlink ref="K8" r:id="rId9" display="http://bicotender.ru/tc/search/advanced/?region_id=5445&amp;submit=1" xr:uid="{5647528C-E12E-4B70-9D52-97712F3B26DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>